--- a/supplement/4_enrichment_hierachical_clusters.xlsx
+++ b/supplement/4_enrichment_hierachical_clusters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roos_brouns/Dropbox/Ant-fungus/02_scripts/Git_Das_folder2/Das_et_al_2022a/supplement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581E9206-A7B5-394C-9023-618C15BB1767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64B1B9E-41D6-FD4D-B583-337C5CB15854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1480" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="1480" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ophio_cflo_24h_daypeaking" sheetId="5" r:id="rId1"/>
@@ -2171,7 +2171,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
@@ -6445,7 +6445,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="B32" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -9422,8 +9422,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/supplement/4_enrichment_hierachical_clusters.xlsx
+++ b/supplement/4_enrichment_hierachical_clusters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roos_brouns/Dropbox/Ant-fungus/02_scripts/Git_Das_folder2/Das_et_al_2022a/supplement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64B1B9E-41D6-FD4D-B583-337C5CB15854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDBB4C7-D313-CD44-9026-22D9E57B1D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1480" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="1480" windowWidth="25600" windowHeight="15500" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ophio_cflo_24h_daypeaking" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">beau_24h_nightpeaking!$H$1:$H$120</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ophio_cflo_12h_day&amp;nightpeaking'!$H$1:$H$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ophio_cflo_24h_daypeaking!$H$1:$H$121</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ophio_cflo_24h_nightpeaking!$H$1:$H$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ophio_cflo_24h_nightpeaking!$A$1:$K$89</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2172,7 +2172,7 @@
   <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -6093,7 +6093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -6442,11 +6442,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5E81F8-CF32-FF4D-BBF9-15A87DF131A7}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="K1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6907,7 +6906,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -6938,7 +6937,7 @@
       </c>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -6969,7 +6968,7 @@
       </c>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -7000,7 +6999,7 @@
       </c>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
@@ -7064,7 +7063,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
@@ -7095,7 +7094,7 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
@@ -7159,7 +7158,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -7192,7 +7191,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -7355,7 +7354,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
@@ -7388,7 +7387,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>47</v>
       </c>
@@ -7421,7 +7420,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>49</v>
       </c>
@@ -7454,7 +7453,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>18</v>
       </c>
@@ -7553,7 +7552,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
@@ -7619,7 +7618,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>25</v>
       </c>
@@ -7784,7 +7783,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>52</v>
       </c>
@@ -8444,7 +8443,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
@@ -8840,7 +8839,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>24</v>
       </c>
@@ -8939,7 +8938,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>98</v>
       </c>
@@ -9071,7 +9070,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>134</v>
       </c>
@@ -9104,7 +9103,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>88</v>
       </c>
@@ -9236,7 +9235,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>31</v>
       </c>
@@ -9406,14 +9405,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H89" xr:uid="{4D6CEFAB-7833-D241-A8C3-6675C5FC24D4}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Over-represented"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -9422,7 +9415,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -11783,7 +11776,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="H92" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
